--- a/else/Test/excel/test/test.xlsx
+++ b/else/Test/excel/test/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>自定义id</t>
   </si>
@@ -35,7 +35,9 @@
     <t>字符串</t>
   </si>
   <si>
-    <t>路径</t>
+    <t>路径
+#path
+#default 40</t>
   </si>
   <si>
     <t>数字1</t>
@@ -44,7 +46,7 @@
     <t>数字2</t>
   </si>
   <si>
-    <t>数字3</t>
+    <t>科学计数法</t>
   </si>
   <si>
     <t>布尔值</t>
@@ -59,9 +61,6 @@
     <t>空白</t>
   </si>
   <si>
-    <t>空字符串</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -74,12 +73,12 @@
     <t>num</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>num1</t>
   </si>
   <si>
+    <t>num2</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -92,16 +91,13 @@
     <t>empty</t>
   </si>
   <si>
-    <t>s1</t>
-  </si>
-  <si>
     <t>测试id1</t>
   </si>
   <si>
-    <t>字符串测试12</t>
-  </si>
-  <si>
-    <t>ReplaceableTextures\CommandButtons\BTNStormBolt.blp</t>
+    <t>字符串测试1</t>
+  </si>
+  <si>
+    <t>a\c\\b\\\\\s.blp</t>
   </si>
   <si>
     <t>1e5</t>
@@ -114,16 +110,13 @@
     <t>[1,2,3]</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>测试id2</t>
   </si>
   <si>
-    <t>字符串测试13</t>
-  </si>
-  <si>
-    <t>1e6</t>
+    <t>字符串测试2</t>
+  </si>
+  <si>
+    <t>1,234e3</t>
   </si>
   <si>
     <t>{防御:2785,
@@ -133,7 +126,90 @@
     <t>[85,13,598]</t>
   </si>
   <si>
+    <t>测试id3</t>
+  </si>
+  <si>
+    <t>字符串测试3</t>
+  </si>
+  <si>
+    <t>-1,234.56e-3</t>
+  </si>
+  <si>
+    <t>{基础攻击:500,
+基础生命:1001}</t>
+  </si>
+  <si>
+    <t>[1,2,4]</t>
+  </si>
+  <si>
+    <t>测试id4</t>
+  </si>
+  <si>
+    <t>字符串测试4</t>
+  </si>
+  <si>
+    <t>1,234,567.89e+6</t>
+  </si>
+  <si>
+    <t>{防御:2785,
+法抗:58118}</t>
+  </si>
+  <si>
+    <t>[85,13,599]</t>
+  </si>
+  <si>
+    <t>测试id5</t>
+  </si>
+  <si>
+    <t>字符串测试5</t>
+  </si>
+  <si>
+    <t>1,234,567.89</t>
+  </si>
+  <si>
+    <t>{基础攻击:500,
+基础生命:1002}</t>
+  </si>
+  <si>
+    <t>[1,2,5]</t>
+  </si>
+  <si>
     <t>//</t>
+  </si>
+  <si>
+    <t>1e6</t>
+  </si>
+  <si>
+    <t>测试id8</t>
+  </si>
+  <si>
+    <t>字符串测试8</t>
+  </si>
+  <si>
+    <t>1e10</t>
+  </si>
+  <si>
+    <t>{防御:2785,
+法抗:58119}</t>
+  </si>
+  <si>
+    <t>[85,13,600]</t>
+  </si>
+  <si>
+    <t>测试id9</t>
+  </si>
+  <si>
+    <t>字符串测试9</t>
+  </si>
+  <si>
+    <t>1e11</t>
+  </si>
+  <si>
+    <t>{基础攻击:500,
+基础生命:1003}</t>
+  </si>
+  <si>
+    <t>[1,2,6]</t>
   </si>
 </sst>
 </file>
@@ -797,65 +873,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,125 +1247,125 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.2222222222222" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="4" width="17.7777777777778" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13.1111111111111" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.4351851851852" style="4" customWidth="1"/>
-    <col min="8" max="9" width="24.4351851851852" style="5" customWidth="1"/>
-    <col min="10" max="11" width="18.6666666666667" style="6" customWidth="1"/>
-    <col min="12" max="12" width="19.7777777777778" style="7" customWidth="1"/>
-    <col min="13" max="13" width="40.8333333333333" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="17.1111111111111" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.1111111111111" style="4" customWidth="1"/>
-    <col min="17" max="17" width="15" style="4" customWidth="1"/>
-    <col min="18" max="18" width="6.77777777777778" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.66666666666667" style="4" customWidth="1"/>
-    <col min="20" max="20" width="12.6666666666667" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.1111111111111" style="4" customWidth="1"/>
-    <col min="22" max="22" width="18.6666666666667" style="7" customWidth="1"/>
-    <col min="23" max="23" width="12.6666666666667" style="4" customWidth="1"/>
-    <col min="24" max="24" width="14.1111111111111" style="4" customWidth="1"/>
-    <col min="25" max="25" width="12.6666666666667" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="12.2222222222222" style="4" customWidth="1"/>
+    <col min="3" max="4" width="18" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.5555555555556" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.1111111111111" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.33333333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.1111111111111" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.6666666666667" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.7777777777778" style="4" customWidth="1"/>
+    <col min="14" max="14" width="40.8333333333333" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9" style="4"/>
+    <col min="16" max="16" width="17.1111111111111" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.1111111111111" style="4" customWidth="1"/>
+    <col min="18" max="18" width="15" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.77777777777778" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.66666666666667" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.6666666666667" style="4" customWidth="1"/>
+    <col min="22" max="22" width="12.1111111111111" style="4" customWidth="1"/>
+    <col min="23" max="23" width="18.6666666666667" style="4" customWidth="1"/>
+    <col min="24" max="24" width="12.6666666666667" style="4" customWidth="1"/>
+    <col min="25" max="25" width="14.1111111111111" style="4" customWidth="1"/>
+    <col min="26" max="26" width="12.6666666666667" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:27">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:28">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="12"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="17.4" spans="1:28">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="14"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:27">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1309,668 +1379,854 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="14"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="17" customHeight="1" spans="1:27">
-      <c r="A3" s="10" t="s">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="17" customHeight="1" spans="1:28">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="F3" s="8">
+        <v>1234567.89</v>
+      </c>
+      <c r="G3" s="8">
+        <v>52.87</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="I3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10">
-        <v>135</v>
-      </c>
-      <c r="E3" s="10">
-        <v>52.87</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="K3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="3"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="18"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
-      <c r="A4" s="10" t="s">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>15.897</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="K4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10">
-        <v>136</v>
-      </c>
-      <c r="E4" s="10">
-        <v>15.897</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="10" t="b">
+      <c r="L4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="3"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
-      <c r="A5" s="10" t="s">
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="A5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>-21.076</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="D5" s="10">
-        <v>136</v>
-      </c>
-      <c r="E5" s="10">
-        <v>15.897</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10">
-        <v>123</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="2"/>
+      <c r="K5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="3"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="17" customHeight="1" spans="1:25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="b">
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8">
+        <v>138</v>
+      </c>
+      <c r="G6" s="8">
+        <v>-58.049</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="10" t="b">
+      <c r="J6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="A7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="3"/>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8">
+        <v>139</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-95.022</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="2"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="3"/>
+      <c r="D8" s="8">
+        <v>-95.022</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8">
+        <v>136</v>
+      </c>
+      <c r="G8" s="8">
+        <v>15.897</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="8">
+        <v>123</v>
+      </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="3"/>
+      <c r="D9" s="8">
+        <v>-95.022</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="3"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="A10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="3"/>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8">
+        <v>140</v>
+      </c>
+      <c r="G10" s="8">
+        <v>-131.995</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="3"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="A11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="3"/>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8">
+        <v>141</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-168.968</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="8"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="2"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="3"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="3"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="3"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="3"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="3"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="3"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="3"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="3"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="3"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="3"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="3"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="3"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="3"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="3"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="1:29">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="3"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="3"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-    </row>
-    <row r="24" spans="1:29">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="3"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="3"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="17.4" spans="1:26">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="8"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="17.4" spans="1:30">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="8"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="17.4" spans="1:30">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/else/Test/excel/test/test.xlsx
+++ b/else/Test/excel/test/test.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="中文工作表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>自定义id</t>
   </si>
@@ -61,6 +62,9 @@
     <t>空白</t>
   </si>
   <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -91,10 +95,13 @@
     <t>empty</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>测试id1</t>
   </si>
   <si>
-    <t>字符串测试1</t>
+    <t>"字符串测试1"</t>
   </si>
   <si>
     <t>a\c\\b\\\\\s.blp</t>
@@ -110,10 +117,18 @@
     <t>[1,2,3]</t>
   </si>
   <si>
+    <t>import ActorTypeUtil from "@/ActorTypeUtil";
+    for (let datum of data) {
+        if (datum.id) {
+            ActorTypeUtil.registerActorType(datum as any);
+        }
+    }</t>
+  </si>
+  <si>
     <t>测试id2</t>
   </si>
   <si>
-    <t>字符串测试2</t>
+    <t>"字符串测试2"</t>
   </si>
   <si>
     <t>1,234e3</t>
@@ -145,7 +160,7 @@
     <t>测试id4</t>
   </si>
   <si>
-    <t>字符串测试4</t>
+    <t>""</t>
   </si>
   <si>
     <t>1,234,567.89e+6</t>
@@ -161,9 +176,6 @@
     <t>测试id5</t>
   </si>
   <si>
-    <t>字符串测试5</t>
-  </si>
-  <si>
     <t>1,234,567.89</t>
   </si>
   <si>
@@ -210,6 +222,12 @@
   </si>
   <si>
     <t>[1,2,6]</t>
+  </si>
+  <si>
+    <t>字符串测试1</t>
+  </si>
+  <si>
+    <t>字符串测试2</t>
   </si>
 </sst>
 </file>
@@ -602,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -617,6 +635,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -749,7 +780,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,34 +792,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -886,9 +917,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,6 +952,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,122 +1293,126 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="12.2222222222222" style="4" customWidth="1"/>
-    <col min="3" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.6666666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.5555555555556" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.1111111111111" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.33333333333333" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.1111111111111" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.6666666666667" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.7777777777778" style="4" customWidth="1"/>
-    <col min="14" max="14" width="40.8333333333333" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9" style="4"/>
-    <col min="16" max="16" width="17.1111111111111" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.1111111111111" style="4" customWidth="1"/>
-    <col min="18" max="18" width="15" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.77777777777778" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.66666666666667" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.6666666666667" style="4" customWidth="1"/>
-    <col min="22" max="22" width="12.1111111111111" style="4" customWidth="1"/>
-    <col min="23" max="23" width="18.6666666666667" style="4" customWidth="1"/>
-    <col min="24" max="24" width="12.6666666666667" style="4" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" style="4" customWidth="1"/>
-    <col min="26" max="26" width="12.6666666666667" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="12.2222222222222" style="16" customWidth="1"/>
+    <col min="3" max="4" width="18" style="16" customWidth="1"/>
+    <col min="5" max="5" width="24.6666666666667" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.5555555555556" style="16" customWidth="1"/>
+    <col min="7" max="7" width="16" style="16" customWidth="1"/>
+    <col min="8" max="8" width="23.1111111111111" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.33333333333333" style="16" customWidth="1"/>
+    <col min="10" max="10" width="19" style="16" customWidth="1"/>
+    <col min="11" max="11" width="17.1111111111111" style="16" customWidth="1"/>
+    <col min="12" max="12" width="18.6666666666667" style="16" customWidth="1"/>
+    <col min="13" max="13" width="19.7777777777778" style="17" customWidth="1"/>
+    <col min="14" max="14" width="40.8333333333333" style="16" customWidth="1"/>
+    <col min="15" max="15" width="9" style="16"/>
+    <col min="16" max="16" width="17.1111111111111" style="16" customWidth="1"/>
+    <col min="17" max="17" width="11.1111111111111" style="16" customWidth="1"/>
+    <col min="18" max="18" width="15" style="16" customWidth="1"/>
+    <col min="19" max="19" width="6.77777777777778" style="16" customWidth="1"/>
+    <col min="20" max="20" width="9.66666666666667" style="16" customWidth="1"/>
+    <col min="21" max="21" width="12.6666666666667" style="16" customWidth="1"/>
+    <col min="22" max="22" width="12.1111111111111" style="16" customWidth="1"/>
+    <col min="23" max="23" width="18.6666666666667" style="16" customWidth="1"/>
+    <col min="24" max="24" width="12.6666666666667" style="16" customWidth="1"/>
+    <col min="25" max="25" width="14.1111111111111" style="16" customWidth="1"/>
+    <col min="26" max="26" width="12.6666666666667" style="16" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:28">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="12"/>
+      <c r="AB1" s="11"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="17.4" spans="1:28">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="L2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1380,41 +1427,43 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="12"/>
+      <c r="AB2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="17" customHeight="1" spans="1:28">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8">
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7">
         <v>1234567.89</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>52.87</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="8" t="b">
+      <c r="H3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="J3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="15"/>
       <c r="O3" s="3"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1431,36 +1480,36 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
         <v>15.897</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="8" t="b">
+      <c r="H4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="8" t="b">
+      <c r="J4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="16"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="3"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1475,34 +1524,34 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
-      <c r="A5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
         <v>-21.076</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="8" t="b">
+      <c r="H5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="16"/>
+      <c r="J5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="3"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1517,40 +1566,40 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
-      <c r="A6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7">
         <v>138</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>-58.049</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="8" t="b">
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="8" t="b">
+      <c r="J6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="16"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="3"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1565,38 +1614,38 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
-      <c r="A7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="A7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7">
         <v>139</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>-95.022</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="8" t="b">
+      <c r="H7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="16"/>
+      <c r="J7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="3"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1611,32 +1660,32 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
-      <c r="A8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="8">
+      <c r="A8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7">
         <v>-95.022</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>136</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>15.897</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="8">
+      <c r="H8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="19">
         <v>123</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="16"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="3"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1651,30 +1700,30 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7">
         <v>-95.022</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8" t="b">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="8" t="b">
+      <c r="J9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="16"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="3"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1689,40 +1738,40 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
-      <c r="A10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="A10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7">
         <v>140</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>-131.995</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="8" t="b">
+      <c r="H10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="8" t="b">
+      <c r="J10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="16"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="3"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1737,38 +1786,38 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
-      <c r="A11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="A11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7">
         <v>141</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>-168.968</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="8" t="b">
+      <c r="H11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="16"/>
+      <c r="J11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="3"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1783,19 +1832,19 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="3"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="2"/>
@@ -1811,19 +1860,19 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="2"/>
@@ -1839,19 +1888,19 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="3"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="2"/>
@@ -1867,19 +1916,19 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="3"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="2"/>
@@ -1895,19 +1944,19 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="3"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="2"/>
@@ -1923,19 +1972,19 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="3"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="2"/>
@@ -1951,19 +2000,19 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="3"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="2"/>
@@ -1979,19 +2028,19 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="3"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="2"/>
@@ -2007,19 +2056,19 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="3"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="2"/>
@@ -2035,19 +2084,19 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="3"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="2"/>
@@ -2063,19 +2112,19 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="3"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="2"/>
@@ -2091,19 +2140,19 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="3"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="7"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="2"/>
@@ -2119,19 +2168,19 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="3"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="2"/>
@@ -2147,18 +2196,19 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="17.4" spans="1:26">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="7"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -2170,17 +2220,17 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" s="4" customFormat="1" ht="17.4" spans="1:30">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="8"/>
-      <c r="M26" s="3"/>
+    <row r="26" s="16" customFormat="1" ht="17.4" spans="1:30">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="M26" s="7"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="2"/>
@@ -2199,17 +2249,17 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" s="4" customFormat="1" ht="17.4" spans="1:30">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8"/>
-      <c r="M27" s="3"/>
+    <row r="27" s="16" customFormat="1" ht="17.4" spans="1:30">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="2"/>
@@ -2232,4 +2282,189 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:28">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AB1" s="11"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="17.4" spans="1:28">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="AB2" s="11"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="17" customHeight="1" spans="1:28">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1234567.89</v>
+      </c>
+      <c r="G3" s="7">
+        <v>52.87</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="17" customHeight="1" spans="1:26">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <v>15.897</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>